--- a/Sprint2.xlsx
+++ b/Sprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fazli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7DC97F-9617-493F-AB29-29A2E85CEB1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25D5AD0-4B97-4CF6-9654-5F9D9584B178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FFDD918-71AE-487F-B011-DF5B9A05C971}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -93,15 +93,9 @@
     <t>As an admin I want to be able to access the menu So, I can delete items from the menu</t>
   </si>
   <si>
-    <t>As an admin I want to be able to access customers list So, I can see the list of registered customers</t>
-  </si>
-  <si>
     <t>Manizha</t>
   </si>
   <si>
-    <t>As an admin I want to be able to access customers list So, I can delete customers from the list</t>
-  </si>
-  <si>
     <t>As an admin I want to be able to access raw materials list So, I can add raw materials to the list</t>
   </si>
   <si>
@@ -135,7 +129,16 @@
     <t>28/3/2024</t>
   </si>
   <si>
-    <t>Progress</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to have meals, desserts, and drinks categories in the menu</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access customers reservation list So, I can see the list of registered customers</t>
+  </si>
+  <si>
+    <t>As an admin I want to be able to access customers reservation list So, I can delete customers from the list</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -318,6 +321,12 @@
     </xf>
     <xf numFmtId="44" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,21 +646,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A4699-12B7-4623-89CC-88C3CF4C41F7}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -726,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -747,115 +757,115 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K6" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K7" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K8" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K9" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -876,115 +886,115 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K11" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K12" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K13" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K14" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="23">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1005,125 +1015,125 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1132,124 +1142,127 @@
       <c r="I20" s="19"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
@@ -1262,123 +1275,123 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
       <c r="B28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -1391,129 +1404,123 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K32" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K33" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K34" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+      <c r="A35" s="23">
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -1527,128 +1534,128 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K36" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K37" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K38" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K39" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="A40" s="23">
         <v>8</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -1662,133 +1669,269 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K41" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K42" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K43" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="14" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K44" s="14">
-        <v>0</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>9</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="14">
+        <v>50</v>
+      </c>
+      <c r="K46" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="14">
+        <v>50</v>
+      </c>
+      <c r="K47" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="14">
+        <v>50</v>
+      </c>
+      <c r="K48" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="14">
+        <v>50</v>
+      </c>
+      <c r="K49" s="14">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="G36:G39 G6:G9 G11:G14 G16:G19 G21:G24 G26:G29 G31:G34 G41:G44" xr:uid="{06473FB3-B634-4D3C-858B-DFFDF65D23CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="G36:G39 G41:G44 G6:G9 G11:G14 G46:G49 G26:G29 G31:G34 G16:G19 G21:G24" xr:uid="{06473FB3-B634-4D3C-858B-DFFDF65D23CA}">
       <formula1>"To Do,Progress,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
